--- a/docs/human_rabbies_template.xlsx
+++ b/docs/human_rabbies_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\OHA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A05C0B-4ECC-4712-B7DB-1BBE742F9778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E187F1-4AE4-4634-A15D-469477B871F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="353" windowWidth="24196" windowHeight="13244" xr2:uid="{2BB8D306-C2BB-4469-A601-67953E80B5FA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{2BB8D306-C2BB-4469-A601-67953E80B5FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,34 +32,595 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>sno</t>
-  </si>
-  <si>
-    <t>organisationunitname</t>
-  </si>
-  <si>
-    <t>organisationunitcode</t>
-  </si>
-  <si>
-    <t>oneMonthToBelowOneYear</t>
-  </si>
-  <si>
-    <t>ageOneToBelowFiveYears</t>
-  </si>
-  <si>
-    <t>ageFiveToBelowSixthyYears</t>
-  </si>
-  <si>
-    <t>disease</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="194">
+  <si>
+    <t>Arusha City Council</t>
+  </si>
+  <si>
+    <t>Arusha District Council</t>
+  </si>
+  <si>
+    <t>Karatu District Council</t>
+  </si>
+  <si>
+    <t>Longido District Council</t>
+  </si>
+  <si>
+    <t>Meru District Council</t>
+  </si>
+  <si>
+    <t>Monduli District Council</t>
+  </si>
+  <si>
+    <t>Ngorongoro District Council</t>
+  </si>
+  <si>
+    <t>Ilala Municipal Council</t>
+  </si>
+  <si>
+    <t>Kigamboni Municipal Council</t>
+  </si>
+  <si>
+    <t>Kinondoni Municipal Council</t>
+  </si>
+  <si>
+    <t>Temeke Municipal Council</t>
+  </si>
+  <si>
+    <t>Ubungo Municipal Council</t>
+  </si>
+  <si>
+    <t>Bahi District Council</t>
+  </si>
+  <si>
+    <t>Chamwino District Council</t>
+  </si>
+  <si>
+    <t>Chemba District Council</t>
+  </si>
+  <si>
+    <t>Dodoma Municipal Council</t>
+  </si>
+  <si>
+    <t>Kondoa District Council</t>
+  </si>
+  <si>
+    <t>Kondoa Town Council</t>
+  </si>
+  <si>
+    <t>Kongwa District Council</t>
+  </si>
+  <si>
+    <t>Mpwapwa District Council</t>
+  </si>
+  <si>
+    <t>Bukombe District Council</t>
+  </si>
+  <si>
+    <t>Chato District Council</t>
+  </si>
+  <si>
+    <t>Geita District Council</t>
+  </si>
+  <si>
+    <t>Geita Town council</t>
+  </si>
+  <si>
+    <t>Mbogwe District Council</t>
+  </si>
+  <si>
+    <t>Nyang'hwale District Council</t>
+  </si>
+  <si>
+    <t>Iringa District Council</t>
+  </si>
+  <si>
+    <t>Iringa Municipal Council</t>
+  </si>
+  <si>
+    <t>Kilolo District Council</t>
+  </si>
+  <si>
+    <t>Mafinga Town Council</t>
+  </si>
+  <si>
+    <t>Mufindi District Council</t>
+  </si>
+  <si>
+    <t>Biharamulo District Council</t>
+  </si>
+  <si>
+    <t>Bukoba District Council</t>
+  </si>
+  <si>
+    <t>Bukoba Municipal Council</t>
+  </si>
+  <si>
+    <t>Karagwe District Council</t>
+  </si>
+  <si>
+    <t>Kyerwa District Council</t>
+  </si>
+  <si>
+    <t>Missenyi District Council</t>
+  </si>
+  <si>
+    <t>Muleba District Council</t>
+  </si>
+  <si>
+    <t>Ngara District Council</t>
+  </si>
+  <si>
+    <t>Mlele District Council</t>
+  </si>
+  <si>
+    <t>Mpanda Municipal Council</t>
+  </si>
+  <si>
+    <t>Mpimbwe District Council</t>
+  </si>
+  <si>
+    <t>Nsimbo District Council</t>
+  </si>
+  <si>
+    <t>Tanganyika District Council</t>
+  </si>
+  <si>
+    <t>Buhigwe District Council</t>
+  </si>
+  <si>
+    <t>Kakonko District Council</t>
+  </si>
+  <si>
+    <t>Kasulu District Council</t>
+  </si>
+  <si>
+    <t>Kasulu Town Council</t>
+  </si>
+  <si>
+    <t>Kibondo District Council</t>
+  </si>
+  <si>
+    <t>Kigoma District Council</t>
+  </si>
+  <si>
+    <t>Kigoma Municipal Council</t>
+  </si>
+  <si>
+    <t>Uvinza District Council</t>
+  </si>
+  <si>
+    <t>Hai District Council</t>
+  </si>
+  <si>
+    <t>Moshi District Council</t>
+  </si>
+  <si>
+    <t>Moshi Municipal Council</t>
+  </si>
+  <si>
+    <t>Mwanga District Council</t>
+  </si>
+  <si>
+    <t>Rombo District Council</t>
+  </si>
+  <si>
+    <t>Same District Council</t>
+  </si>
+  <si>
+    <t>Siha District Council</t>
+  </si>
+  <si>
+    <t>Kilwa District Council</t>
+  </si>
+  <si>
+    <t>Lindi Municipal Council</t>
+  </si>
+  <si>
+    <t>Liwale District Council</t>
+  </si>
+  <si>
+    <t>Mtama District Council</t>
+  </si>
+  <si>
+    <t>Nachingwea District Council</t>
+  </si>
+  <si>
+    <t>Ruangwa District Council</t>
+  </si>
+  <si>
+    <t>Babati District Council</t>
+  </si>
+  <si>
+    <t>Babati Town Council</t>
+  </si>
+  <si>
+    <t>Hanang District Council</t>
+  </si>
+  <si>
+    <t>Kiteto District Council</t>
+  </si>
+  <si>
+    <t>Mbulu District Council</t>
+  </si>
+  <si>
+    <t>Mbulu Town Council</t>
+  </si>
+  <si>
+    <t>Simanjiro District Council</t>
+  </si>
+  <si>
+    <t>Bunda District Council</t>
+  </si>
+  <si>
+    <t>Bunda Town Council</t>
+  </si>
+  <si>
+    <t>Butiama District Council</t>
+  </si>
+  <si>
+    <t>Musoma District Council</t>
+  </si>
+  <si>
+    <t>Musoma Municipal Council</t>
+  </si>
+  <si>
+    <t>Rorya District Council</t>
+  </si>
+  <si>
+    <t>Serengeti District Council</t>
+  </si>
+  <si>
+    <t>Tarime District Council</t>
+  </si>
+  <si>
+    <t>Tarime Town Council</t>
+  </si>
+  <si>
+    <t>Busokelo District Council</t>
+  </si>
+  <si>
+    <t>Chunya District Council</t>
+  </si>
+  <si>
+    <t>Kyela District Council</t>
+  </si>
+  <si>
+    <t>Mbarali District Council</t>
+  </si>
+  <si>
+    <t>Mbeya City Council</t>
+  </si>
+  <si>
+    <t>Mbeya District Council</t>
+  </si>
+  <si>
+    <t>Rungwe District Council</t>
+  </si>
+  <si>
+    <t>Gairo District Council</t>
+  </si>
+  <si>
+    <t>Ifakara Town Council</t>
+  </si>
+  <si>
+    <t>Kilosa District Council</t>
+  </si>
+  <si>
+    <t>Malinyi District Council</t>
+  </si>
+  <si>
+    <t>Morogoro District Council</t>
+  </si>
+  <si>
+    <t>Morogoro Municipal Council</t>
+  </si>
+  <si>
+    <t>Mvomero District Council</t>
+  </si>
+  <si>
+    <t>Ulanga District Council</t>
+  </si>
+  <si>
+    <t>Masasi District Council</t>
+  </si>
+  <si>
+    <t>Masasi Town Council</t>
+  </si>
+  <si>
+    <t>Mtwara District Council</t>
+  </si>
+  <si>
+    <t>Mtwara Municipal Council</t>
+  </si>
+  <si>
+    <t>Nanyamba Town Council</t>
+  </si>
+  <si>
+    <t>Nanyumbu District Council</t>
+  </si>
+  <si>
+    <t>Newala District Council</t>
+  </si>
+  <si>
+    <t>Newala Town Council</t>
+  </si>
+  <si>
+    <t>Tandahimba District Council</t>
+  </si>
+  <si>
+    <t>Buchosa District Council</t>
+  </si>
+  <si>
+    <t>Ilemela Municipal Council</t>
+  </si>
+  <si>
+    <t>Kwimba District Council</t>
+  </si>
+  <si>
+    <t>Magu District Council</t>
+  </si>
+  <si>
+    <t>Misungwi District Council</t>
+  </si>
+  <si>
+    <t>Nyamagana Municipal Council</t>
+  </si>
+  <si>
+    <t>Sengerema District Council</t>
+  </si>
+  <si>
+    <t>Ukerewe District Council</t>
+  </si>
+  <si>
+    <t>Ludewa District Council</t>
+  </si>
+  <si>
+    <t>Makambako Town Council</t>
+  </si>
+  <si>
+    <t>Makete District Council</t>
+  </si>
+  <si>
+    <t>Njombe District Council</t>
+  </si>
+  <si>
+    <t>Njombe Town Council</t>
+  </si>
+  <si>
+    <t>Wanging'ombe District Council</t>
+  </si>
+  <si>
+    <t>Bagamoyo District Council</t>
+  </si>
+  <si>
+    <t>Chalinze District Council</t>
+  </si>
+  <si>
+    <t>Kibaha District Council</t>
+  </si>
+  <si>
+    <t>Kibaha Town Council</t>
+  </si>
+  <si>
+    <t>Kibiti District Council</t>
+  </si>
+  <si>
+    <t>Kisarawe District Council</t>
+  </si>
+  <si>
+    <t>Mafia District Council</t>
+  </si>
+  <si>
+    <t>Mkuranga District Council</t>
+  </si>
+  <si>
+    <t>Rufiji District Council</t>
+  </si>
+  <si>
+    <t>Kalambo District Council</t>
+  </si>
+  <si>
+    <t>Nkasi District Council</t>
+  </si>
+  <si>
+    <t>Sumbawanga District Council</t>
+  </si>
+  <si>
+    <t>Sumbawanga Municipal Council</t>
+  </si>
+  <si>
+    <t>Madaba District Council</t>
+  </si>
+  <si>
+    <t>Mbinga District Council</t>
+  </si>
+  <si>
+    <t>Mbinga Town Council</t>
+  </si>
+  <si>
+    <t>Namtumbo District Council</t>
+  </si>
+  <si>
+    <t>Nyasa District Council</t>
+  </si>
+  <si>
+    <t>Songea District Council</t>
+  </si>
+  <si>
+    <t>Songea Municipal Council</t>
+  </si>
+  <si>
+    <t>Tunduru District Council</t>
+  </si>
+  <si>
+    <t>Kahama Town Council</t>
+  </si>
+  <si>
+    <t>Kishapu District Council</t>
+  </si>
+  <si>
+    <t>Msalala District Council</t>
+  </si>
+  <si>
+    <t>Shinyanga District Council</t>
+  </si>
+  <si>
+    <t>Shinyanga Municipal Council</t>
+  </si>
+  <si>
+    <t>Ushetu District Council</t>
+  </si>
+  <si>
+    <t>Bariadi District Council</t>
+  </si>
+  <si>
+    <t>Bariadi Town Council</t>
+  </si>
+  <si>
+    <t>Busega District Council</t>
+  </si>
+  <si>
+    <t>Itilima District Council</t>
+  </si>
+  <si>
+    <t>Maswa District Council</t>
+  </si>
+  <si>
+    <t>Meatu District Council</t>
+  </si>
+  <si>
+    <t>Ikungi District Council</t>
+  </si>
+  <si>
+    <t>Iramba District Council</t>
+  </si>
+  <si>
+    <t>Itigi District Council</t>
+  </si>
+  <si>
+    <t>Manyoni District Council</t>
+  </si>
+  <si>
+    <t>Mkalama District Council</t>
+  </si>
+  <si>
+    <t>Singida District Council</t>
+  </si>
+  <si>
+    <t>Singida Municipal Council</t>
+  </si>
+  <si>
+    <t>Ileje District Council</t>
+  </si>
+  <si>
+    <t>Mbozi District Council</t>
+  </si>
+  <si>
+    <t>Momba District Council</t>
+  </si>
+  <si>
+    <t>Songwe District Council</t>
+  </si>
+  <si>
+    <t>Tunduma Town Council</t>
+  </si>
+  <si>
+    <t>Igunga District Council</t>
+  </si>
+  <si>
+    <t>Kaliua District Council</t>
+  </si>
+  <si>
+    <t>Nzega District Council</t>
+  </si>
+  <si>
+    <t>Nzega Town Council</t>
+  </si>
+  <si>
+    <t>Sikonge District Council</t>
+  </si>
+  <si>
+    <t>Tabora Municipal Council</t>
+  </si>
+  <si>
+    <t>Urambo District Council</t>
+  </si>
+  <si>
+    <t>Uyui District Council</t>
+  </si>
+  <si>
+    <t>Bumbuli District Council</t>
+  </si>
+  <si>
+    <t>Handeni District Council</t>
+  </si>
+  <si>
+    <t>Handeni Town Council</t>
+  </si>
+  <si>
+    <t>Kilindi District Council</t>
+  </si>
+  <si>
+    <t>Korogwe District Council</t>
+  </si>
+  <si>
+    <t>Korogwe Town Council</t>
+  </si>
+  <si>
+    <t>Lushoto District Council</t>
+  </si>
+  <si>
+    <t>Mkinga District Council</t>
+  </si>
+  <si>
+    <t>Muheza District Council</t>
+  </si>
+  <si>
+    <t>Pangani District Council</t>
+  </si>
+  <si>
+    <t>Tanga City Council</t>
+  </si>
+  <si>
+    <t>ORGANISATION_UNIT_NAME</t>
+  </si>
+  <si>
+    <t>DISEASE</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>OBSERVATION_DATE</t>
+  </si>
+  <si>
+    <t>SNO</t>
+  </si>
+  <si>
+    <t>Mlimba District Council</t>
+  </si>
+  <si>
+    <t>AGE_ONE_MONTH_TO_BELOW_ONE_YEAR</t>
+  </si>
+  <si>
+    <t>AGE_ONE_YEAR_TO_BELOW_FIVE_YEARS</t>
+  </si>
+  <si>
+    <t>AGE_FIVE_YEAR_TO_BELOW_SIXTY_YEARS</t>
+  </si>
+  <si>
+    <t>Rabbies</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,16 +628,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -84,15 +945,220 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -404,43 +1470,3757 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8CE91-748C-492A-BED5-4FABEEC30B5C}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.06640625" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5546875" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H8" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H9" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13">
         <v>5</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
+      <c r="H17" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
+      <c r="H22" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+      <c r="H28" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H31" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H32" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33">
+        <v>14</v>
+      </c>
+      <c r="H33" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G36">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>7</v>
+      </c>
+      <c r="H37" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H38" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>14</v>
+      </c>
+      <c r="H39" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H41" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>7</v>
+      </c>
+      <c r="H42" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H43" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G44">
+        <v>7</v>
+      </c>
+      <c r="H44" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H45" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H46" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G49">
+        <v>12</v>
+      </c>
+      <c r="H49" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H50" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H52" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H53" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H54" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H56" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>31</v>
+      </c>
+      <c r="H59" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G60">
+        <v>6</v>
+      </c>
+      <c r="H60" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H62" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H63" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H64" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H65" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H66" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F67">
+        <v>11</v>
+      </c>
+      <c r="G67">
+        <v>20</v>
+      </c>
+      <c r="H67" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+      <c r="H69" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>18</v>
+      </c>
+      <c r="H70" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F71">
+        <v>30</v>
+      </c>
+      <c r="G71">
+        <v>120</v>
+      </c>
+      <c r="H71" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>14</v>
+      </c>
+      <c r="H73" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H74" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="H79" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>11</v>
+      </c>
+      <c r="H80" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+      <c r="H81" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G82">
+        <v>4</v>
+      </c>
+      <c r="H82" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G84">
+        <v>7</v>
+      </c>
+      <c r="H84" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F85">
+        <v>8</v>
+      </c>
+      <c r="G85">
+        <v>6</v>
+      </c>
+      <c r="H85" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>4</v>
+      </c>
+      <c r="H87" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>8</v>
+      </c>
+      <c r="G88">
+        <v>7</v>
+      </c>
+      <c r="H88" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H90" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E91">
+        <v>6</v>
+      </c>
+      <c r="F91">
+        <v>6</v>
+      </c>
+      <c r="G91">
+        <v>6</v>
+      </c>
+      <c r="H91" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G92">
+        <v>5</v>
+      </c>
+      <c r="H92" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
+      </c>
+      <c r="H93" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H94" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G96">
+        <v>5</v>
+      </c>
+      <c r="H96" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>6</v>
+      </c>
+      <c r="H97" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="H98" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H99" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H100" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H102" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H103" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H104" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H105" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H106" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H107" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>2</v>
+      </c>
+      <c r="H108" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H109" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>4</v>
+      </c>
+      <c r="H110" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G111">
+        <v>4</v>
+      </c>
+      <c r="H111" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
+      <c r="H112" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G113">
+        <v>18</v>
+      </c>
+      <c r="H113" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G116">
+        <v>2</v>
+      </c>
+      <c r="H116" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H117" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H118" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H119" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H121" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G122">
+        <v>13</v>
+      </c>
+      <c r="H122" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G125">
+        <v>2</v>
+      </c>
+      <c r="H125" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>2</v>
+      </c>
+      <c r="H126" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H127" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H128" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G129">
+        <v>2</v>
+      </c>
+      <c r="H129" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>12</v>
+      </c>
+      <c r="H130" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G131">
+        <v>2</v>
+      </c>
+      <c r="H131" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132">
+        <v>6</v>
+      </c>
+      <c r="H132" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>132</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G133">
+        <v>3</v>
+      </c>
+      <c r="H133" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>133</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F134">
+        <v>3</v>
+      </c>
+      <c r="G134">
+        <v>7</v>
+      </c>
+      <c r="H134" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>134</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H135" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>135</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>14</v>
+      </c>
+      <c r="H136" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>136</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="G137">
+        <v>9</v>
+      </c>
+      <c r="H137" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>137</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="G138">
+        <v>9</v>
+      </c>
+      <c r="H138" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>138</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G139">
+        <v>11</v>
+      </c>
+      <c r="H139" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>139</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G140">
+        <v>3</v>
+      </c>
+      <c r="H140" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>140</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>141</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G142">
+        <v>7</v>
+      </c>
+      <c r="H142" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>142</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="H143" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>143</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H144" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>144</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G145">
+        <v>3</v>
+      </c>
+      <c r="H145" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>145</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G146">
+        <v>3</v>
+      </c>
+      <c r="H146" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>146</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H147" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>147</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G148">
+        <v>3</v>
+      </c>
+      <c r="H148" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>148</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>149</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H150" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>150</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G151">
+        <v>2</v>
+      </c>
+      <c r="H151" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>151</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="H152" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>152</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F153">
+        <v>2</v>
+      </c>
+      <c r="G153">
+        <v>2</v>
+      </c>
+      <c r="H153" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H154" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>3</v>
+      </c>
+      <c r="H155" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>155</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>2</v>
+      </c>
+      <c r="G156">
+        <v>6</v>
+      </c>
+      <c r="H156" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>156</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H157" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="H158" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>158</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G159">
+        <v>2</v>
+      </c>
+      <c r="H159" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>159</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>160</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F161">
+        <v>13</v>
+      </c>
+      <c r="G161">
+        <v>31</v>
+      </c>
+      <c r="H161" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G162">
+        <v>3</v>
+      </c>
+      <c r="H162" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>162</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>163</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H164" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>164</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G165">
+        <v>3</v>
+      </c>
+      <c r="H165" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>165</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H166" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F167">
+        <v>3</v>
+      </c>
+      <c r="G167">
+        <v>21</v>
+      </c>
+      <c r="H167" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>167</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G168">
+        <v>3</v>
+      </c>
+      <c r="H168" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>168</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>13</v>
+      </c>
+      <c r="H169" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>169</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H170" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>170</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H171" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>171</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F172">
+        <v>3</v>
+      </c>
+      <c r="G172">
+        <v>6</v>
+      </c>
+      <c r="H172" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>172</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>173</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>174</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H175" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>175</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>176</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>3</v>
+      </c>
+      <c r="H177" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
+        <v>177</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F178">
+        <v>2</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>178</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H179" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
+        <v>179</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>2</v>
+      </c>
+      <c r="H180" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>180</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G181">
+        <v>2</v>
+      </c>
+      <c r="H181" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
+        <v>181</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <v>182</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="H183" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <v>183</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G184">
+        <v>3</v>
+      </c>
+      <c r="H184" s="1">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <v>184</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G185">
+        <v>2</v>
+      </c>
+      <c r="H185" s="1">
+        <v>41640</v>
       </c>
     </row>
   </sheetData>
